--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan.HODGEHOUSE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C748E-54B1-424B-BC22-B54DD96BD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010A38A-A721-4648-B47A-A8C3BB40B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16416" yWindow="1368" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
   <si>
     <t>Cart</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Branch 0001</t>
+  </si>
+  <si>
+    <t>Popstar Demo</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,27 +1022,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010A38A-A721-4648-B47A-A8C3BB40B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D6AB2-5401-4E42-BFBA-446029D09901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16416" yWindow="1368" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
   <si>
     <t>Cart</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Popstar Demo</t>
+  </si>
+  <si>
+    <t>Branch 0013</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +559,10 @@
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +578,11 @@
       <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -592,8 +598,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -609,8 +618,11 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -626,8 +638,11 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -643,8 +658,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -660,8 +678,11 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -677,8 +698,11 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -694,8 +718,11 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -711,8 +738,11 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -728,8 +758,11 @@
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -745,8 +778,11 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -762,8 +798,11 @@
       <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -779,8 +818,11 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -796,8 +838,11 @@
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -813,8 +858,11 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -830,8 +878,11 @@
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -847,8 +898,11 @@
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -864,8 +918,11 @@
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -881,8 +938,11 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -898,8 +958,11 @@
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -915,8 +978,11 @@
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -932,8 +998,11 @@
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -949,8 +1018,11 @@
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -966,8 +1038,11 @@
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -977,8 +1052,11 @@
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -988,8 +1066,11 @@
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -999,8 +1080,11 @@
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1010,8 +1094,11 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1021,8 +1108,11 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1030,6 +1120,9 @@
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D6AB2-5401-4E42-BFBA-446029D09901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAE1AC-9285-4462-B803-D15D7D950FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16416" yWindow="1368" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="46">
   <si>
     <t>Cart</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Branch 0013</t>
+  </si>
+  <si>
+    <t>Branch 0016</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,10 +562,10 @@
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +584,11 @@
       <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -601,8 +607,11 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -621,8 +630,11 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -641,8 +653,11 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -661,8 +676,11 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -681,8 +699,11 @@
       <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -701,8 +722,11 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -721,8 +745,11 @@
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -741,8 +768,11 @@
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -761,8 +791,11 @@
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -781,8 +814,11 @@
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -801,8 +837,11 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -821,8 +860,11 @@
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -841,8 +883,11 @@
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -861,8 +906,11 @@
       <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -881,8 +929,11 @@
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -901,8 +952,11 @@
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -921,8 +975,11 @@
       <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -941,8 +998,11 @@
       <c r="F19" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -961,8 +1021,11 @@
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -981,8 +1044,11 @@
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1001,8 +1067,11 @@
       <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1021,8 +1090,11 @@
       <c r="F23" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1041,8 +1113,11 @@
       <c r="F24" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1055,8 +1130,11 @@
       <c r="F26" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1069,8 +1147,11 @@
       <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1083,8 +1164,11 @@
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1097,8 +1181,11 @@
       <c r="F29" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1111,8 +1198,11 @@
       <c r="F30" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1123,6 +1213,9 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D74577-6D7C-4232-8D74-82B64EE0F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B40D9-C10D-4902-B02B-BACCFE6007F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1932" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Cart</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Contra</t>
   </si>
   <si>
-    <t>OSU EOU Pipe error</t>
-  </si>
-  <si>
     <t>Rampage dsk</t>
   </si>
   <si>
@@ -153,7 +150,13 @@
     <t>Must set Artifacts OFF</t>
   </si>
   <si>
-    <t>Load 20240125</t>
+    <t>OS-9 EOU Pipe error</t>
+  </si>
+  <si>
+    <t>Load 20240204</t>
+  </si>
+  <si>
+    <t>Some garbage on main screen</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,13 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,15 +546,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -570,7 +566,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -582,7 +578,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -594,7 +590,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -606,7 +602,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -618,7 +614,7 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -630,7 +626,7 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -642,7 +638,7 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -652,9 +648,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -666,7 +662,7 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -678,7 +674,7 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -690,7 +686,7 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -702,7 +698,7 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -714,7 +710,7 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -726,7 +722,7 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -738,7 +734,7 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -750,7 +746,7 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -762,7 +758,7 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -774,7 +770,7 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -786,7 +782,7 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -798,7 +794,7 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -810,7 +806,7 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -822,7 +818,7 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -834,7 +830,7 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -844,9 +840,9 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -856,13 +852,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -870,11 +866,11 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -882,11 +878,11 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
@@ -894,11 +890,11 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
@@ -906,7 +902,7 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -943,13 +939,24 @@
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B40D9-C10D-4902-B02B-BACCFE6007F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8F7D7-1CF0-42A5-B736-9ECFBE435FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="1932" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
+    <workbookView xWindow="15996" yWindow="2760" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,10 @@
     <t>OS-9 EOU Pipe error</t>
   </si>
   <si>
-    <t>Load 20240204</t>
-  </si>
-  <si>
     <t>Some garbage on main screen</t>
+  </si>
+  <si>
+    <t>Load 20240205</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8F7D7-1CF0-42A5-B736-9ECFBE435FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23B68B-2ADD-44FC-8659-8DC75A2D5A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15996" yWindow="2760" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
+    <workbookView xWindow="13632" yWindow="3240" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Cart</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Load 20240205</t>
+  </si>
+  <si>
+    <t>Load 20240216</t>
   </si>
 </sst>
 </file>
@@ -530,14 +533,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -551,7 +553,9 @@
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -566,7 +570,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -578,7 +584,9 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -590,7 +598,9 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -602,7 +612,9 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -614,7 +626,9 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -626,7 +640,9 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -638,7 +654,9 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -650,7 +668,9 @@
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -662,7 +682,9 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -674,7 +696,9 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -686,7 +710,9 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -698,7 +724,9 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -710,7 +738,9 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -722,7 +752,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -734,7 +766,9 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -746,7 +780,9 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -758,7 +794,9 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -770,7 +808,9 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -782,7 +822,9 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -794,7 +836,9 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -806,7 +850,9 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -818,7 +864,9 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -830,7 +878,9 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -842,7 +892,9 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -854,7 +906,9 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -866,7 +920,9 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -878,7 +934,9 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -890,7 +948,9 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -902,9 +962,11 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -914,8 +976,11 @@
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -925,8 +990,11 @@
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -936,8 +1004,11 @@
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -947,8 +1018,11 @@
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -956,6 +1030,9 @@
         <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>42</v>
       </c>
     </row>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23B68B-2ADD-44FC-8659-8DC75A2D5A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A131DB-1291-4F89-9D33-8F93F7182CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13632" yWindow="3240" windowWidth="23856" windowHeight="13092" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
+    <workbookView xWindow="18720" yWindow="980" windowWidth="14970" windowHeight="10240" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>Cart</t>
   </si>
@@ -153,13 +153,22 @@
     <t>OS-9 EOU Pipe error</t>
   </si>
   <si>
-    <t>Some garbage on main screen</t>
-  </si>
-  <si>
     <t>Load 20240205</t>
   </si>
   <si>
-    <t>Load 20240216</t>
+    <t>Load 20240318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must set Vido Settings -&gt; LC: = YES </t>
+  </si>
+  <si>
+    <t>Some garbage on main screen [Known  CoCo3 issue]</t>
+  </si>
+  <si>
+    <t>Audio Spectrum Analyzer (1981)</t>
+  </si>
+  <si>
+    <t>Boink</t>
   </si>
 </sst>
 </file>
@@ -185,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,20 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,16 +569,16 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -588,317 +606,317 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
@@ -910,130 +928,156 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>42</v>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/COCO3_Comp.xlsx
+++ b/COCO3_Comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MISTer\CoCo3_Mister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A131DB-1291-4F89-9D33-8F93F7182CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9276C30D-718F-453D-B034-6445B2FFBF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="980" windowWidth="14970" windowHeight="10240" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
+    <workbookView xWindow="9240" yWindow="1660" windowWidth="21500" windowHeight="10910" xr2:uid="{57A7BCA7-2C65-4EF6-A914-7E4BBD33BE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>Cart</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Dragon Fire</t>
   </si>
   <si>
-    <t>Dungeons od daggorath</t>
-  </si>
-  <si>
     <t>GFL Champ Football</t>
   </si>
   <si>
@@ -165,10 +162,25 @@
     <t>Some garbage on main screen [Known  CoCo3 issue]</t>
   </si>
   <si>
-    <t>Audio Spectrum Analyzer (1981)</t>
-  </si>
-  <si>
     <t>Boink</t>
+  </si>
+  <si>
+    <t>Trails from the bottom of the ball, bottom of screen messed up, but runs.</t>
+  </si>
+  <si>
+    <t>Load 20240514-004</t>
+  </si>
+  <si>
+    <t>N*</t>
+  </si>
+  <si>
+    <t>Boots, Requests name, as if you want to restore a game, puts graphics up and locks after 1 heartbeat.</t>
+  </si>
+  <si>
+    <t>Dungeons of daggorath</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +244,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,17 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1C0CF-A4E7-4A2B-AD36-22ADB22CD812}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -566,15 +582,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -591,6 +609,9 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -605,66 +626,81 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -673,40 +709,49 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -715,35 +760,44 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -759,19 +813,25 @@
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -779,16 +839,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -801,8 +864,11 @@
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -815,8 +881,11 @@
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -829,8 +898,11 @@
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -843,8 +915,11 @@
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -857,36 +932,45 @@
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -899,27 +983,33 @@
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -927,25 +1017,31 @@
       <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,8 +1051,11 @@
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -969,8 +1068,11 @@
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -983,38 +1085,43 @@
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>27</v>
@@ -1022,11 +1129,14 @@
       <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>28</v>
@@ -1037,27 +1147,29 @@
       <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>44</v>
@@ -1065,19 +1177,24 @@
       <c r="D38" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="E38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>45</v>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
